--- a/LabTime.xlsx
+++ b/LabTime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunes\Documents\C++\Lab3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973365CF-EF01-44BC-BCF3-459D676A4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7957815-9456-45BA-9AAE-9CAC5486154F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{19BEF153-DB1B-4AC7-B1E2-ACCB523FF816}"/>
   </bookViews>
@@ -16,11 +16,15 @@
     <sheet name="Random" sheetId="2" r:id="rId1"/>
     <sheet name="Sorted" sheetId="3" r:id="rId2"/>
     <sheet name="Reverse" sheetId="4" r:id="rId3"/>
+    <sheet name="Merge Sort Sorted" sheetId="5" r:id="rId4"/>
+    <sheet name="Random+" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -463,20 +467,20 @@
                 <c:pt idx="2">
                   <c:v>31.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.25</c:v>
+                  <c:v>31.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.25</c:v>
+                  <c:v>32.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.87</c:v>
+                  <c:v>46.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>78.12</c:v>
@@ -951,26 +955,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -979,11 +963,164 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]timeSorted!$B$1</c:f>
+              <c:f>[2]timeSorted!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>328,117</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]timeSorted!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>562.48400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>906.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1421.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2031.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2765.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3609.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4562.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5640.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]timeSorted!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>265.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.6256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.249600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.252500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.751900000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.879300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.872199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.502299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5371-475D-8641-B313F8086CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]timeSorted!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]timeSorted!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>562.48400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>906.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1421.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2031.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2765.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3609.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4562.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5640.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]timeSorted!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-5371-475D-8641-B313F8086CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[5]timeSorted!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1006,7 +1143,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]timeSorted!$A$2:$A$10</c:f>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1042,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]timeSorted!$B$2:$B$10</c:f>
+              <c:f>[5]timeSorted!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1079,16 +1216,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B803-4F27-B2A8-FE802BC32C1C}"/>
+              <c16:uniqueId val="{00000002-5371-475D-8641-B313F8086CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]timeSorted!$C$1</c:f>
+              <c:f>[5]timeSorted!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1111,7 +1248,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]timeSorted!$A$2:$A$10</c:f>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1147,7 +1284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]timeSorted!$C$2:$C$10</c:f>
+              <c:f>[5]timeSorted!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1184,16 +1321,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B803-4F27-B2A8-FE802BC32C1C}"/>
+              <c16:uniqueId val="{00000004-5371-475D-8641-B313F8086CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]timeSorted!$D$1</c:f>
+              <c:f>[5]timeSorted!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1216,7 +1353,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]timeSorted!$A$2:$A$10</c:f>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1252,7 +1389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]timeSorted!$D$2:$D$10</c:f>
+              <c:f>[5]timeSorted!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1266,10 +1403,10 @@
                   <c:v>31.2502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.6248</c:v>
+                  <c:v>31.6248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.248200000000001</c:v>
+                  <c:v>31.9482</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46.875799999999998</c:v>
@@ -1278,7 +1415,7 @@
                   <c:v>46.877099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.872999999999998</c:v>
+                  <c:v>46.893000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62.498100000000001</c:v>
@@ -1289,16 +1426,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B803-4F27-B2A8-FE802BC32C1C}"/>
+              <c16:uniqueId val="{00000006-5371-475D-8641-B313F8086CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]timeSorted!$E$1</c:f>
+              <c:f>[5]timeSorted!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1321,7 +1458,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]timeSorted!$A$2:$A$10</c:f>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1357,7 +1494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]timeSorted!$E$2:$E$10</c:f>
+              <c:f>[5]timeSorted!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1394,16 +1531,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B803-4F27-B2A8-FE802BC32C1C}"/>
+              <c16:uniqueId val="{00000008-5371-475D-8641-B313F8086CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]timeSorted!$F$1</c:f>
+              <c:f>[5]timeSorted!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1426,7 +1563,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]timeSorted!$A$2:$A$10</c:f>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1462,7 +1599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]timeSorted!$F$2:$F$10</c:f>
+              <c:f>[5]timeSorted!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1499,7 +1636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B803-4F27-B2A8-FE802BC32C1C}"/>
+              <c16:uniqueId val="{0000000A-5371-475D-8641-B313F8086CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1622,16 +1759,17 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1663,30 +1801,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1753,26 +1870,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1781,11 +1878,429 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]timeReverse!$B$1</c:f>
+              <c:f>[3]timeReverse!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>140.619</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]timeReverse!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1781.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2468.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4374.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5531.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6843.53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]timeReverse!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8BE6-4AE7-B982-89AB219AF565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]timeReverse!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.6281</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]timeReverse!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1781.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2468.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4374.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5531.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6843.53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]timeReverse!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8BE6-4AE7-B982-89AB219AF565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]timeReverse!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>156.241</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]timeReverse!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1781.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2468.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4374.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5531.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6843.53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]timeReverse!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8BE6-4AE7-B982-89AB219AF565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]timeReverse!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>78.1251</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]timeReverse!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1781.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2468.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4374.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5531.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6843.53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]timeReverse!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8BE6-4AE7-B982-89AB219AF565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]timeReverse!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]timeReverse!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>671.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1781.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2468.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4374.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5531.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6843.53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]timeReverse!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8BE6-4AE7-B982-89AB219AF565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]timeReverse!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1808,7 +2323,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]timeReverse!$A$2:$A$10</c:f>
+              <c:f>[4]timeReverse!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1844,7 +2359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]timeReverse!$B$2:$B$10</c:f>
+              <c:f>[4]timeReverse!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1881,16 +2396,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97DA-41F4-99E1-3BEAA9391A7D}"/>
+              <c16:uniqueId val="{00000002-8BE6-4AE7-B982-89AB219AF565}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]timeReverse!$C$1</c:f>
+              <c:f>[4]timeReverse!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1913,7 +2428,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]timeReverse!$A$2:$A$10</c:f>
+              <c:f>[4]timeReverse!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1949,7 +2464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]timeReverse!$C$2:$C$10</c:f>
+              <c:f>[4]timeReverse!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1986,16 +2501,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-97DA-41F4-99E1-3BEAA9391A7D}"/>
+              <c16:uniqueId val="{00000004-8BE6-4AE7-B982-89AB219AF565}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]timeReverse!$D$1</c:f>
+              <c:f>[4]timeReverse!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2018,7 +2533,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]timeReverse!$A$2:$A$10</c:f>
+              <c:f>[4]timeReverse!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2054,7 +2569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]timeReverse!$D$2:$D$10</c:f>
+              <c:f>[4]timeReverse!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2091,16 +2606,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-97DA-41F4-99E1-3BEAA9391A7D}"/>
+              <c16:uniqueId val="{00000006-8BE6-4AE7-B982-89AB219AF565}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]timeReverse!$E$1</c:f>
+              <c:f>[4]timeReverse!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2123,7 +2638,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]timeReverse!$A$2:$A$10</c:f>
+              <c:f>[4]timeReverse!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2159,7 +2674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]timeReverse!$E$2:$E$10</c:f>
+              <c:f>[4]timeReverse!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2196,16 +2711,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-97DA-41F4-99E1-3BEAA9391A7D}"/>
+              <c16:uniqueId val="{00000008-8BE6-4AE7-B982-89AB219AF565}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]timeReverse!$F$1</c:f>
+              <c:f>[4]timeReverse!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2228,7 +2743,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]timeReverse!$A$2:$A$10</c:f>
+              <c:f>[4]timeReverse!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2264,7 +2779,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]timeReverse!$F$2:$F$10</c:f>
+              <c:f>[4]timeReverse!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2301,7 +2816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-97DA-41F4-99E1-3BEAA9391A7D}"/>
+              <c16:uniqueId val="{0000000A-8BE6-4AE7-B982-89AB219AF565}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2389,7 +2904,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2421,6 +2936,360 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="395238224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7692038495188118E-2"/>
+          <c:y val="0.22206073199183432"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[5]timeSorted!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[5]timeSorted!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[5]timeSorted!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.6244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.624000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.2502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.875799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.877099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.498100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04F6-4576-8CB5-1A4F38008F98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687917920"/>
+        <c:axId val="1687919168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687917920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687919168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687919168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687917920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2499,6 +3368,498 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время работы алгоритмов сортировки на произвольной последовательности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]timerand!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]timerand!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]timerand!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAC1-4475-B7D3-548F36A1B63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]timerand!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]timerand!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]timerand!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>46.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>391.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>484.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>627.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>718.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>906.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAC1-4475-B7D3-548F36A1B63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483348144"/>
+        <c:axId val="483348560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483348144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483348560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483348560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483348144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4302,6 +5663,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683795AF-423E-4EB5-83E4-C3467C7371D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA12D30F-E6EE-4FB0-B10B-B4F9DADAB663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4398,8 +5835,8 @@
           <cell r="C5">
             <v>656.23</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>15.6297</v>
+          <cell r="D5">
+            <v>31.3</v>
           </cell>
           <cell r="E5">
             <v>234.37</v>
@@ -4419,7 +5856,7 @@
             <v>984.34</v>
           </cell>
           <cell r="D6">
-            <v>31.25</v>
+            <v>31.44</v>
           </cell>
           <cell r="E6">
             <v>391.43</v>
@@ -4439,7 +5876,7 @@
             <v>1280.06</v>
           </cell>
           <cell r="D7">
-            <v>31.25</v>
+            <v>32.29</v>
           </cell>
           <cell r="E7">
             <v>484.36</v>
@@ -4479,7 +5916,7 @@
             <v>2307.36</v>
           </cell>
           <cell r="D9">
-            <v>46.87</v>
+            <v>46.89</v>
           </cell>
           <cell r="E9">
             <v>718.73</v>
@@ -4518,26 +5955,25 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sorted"/>
       <sheetName val="timeSorted"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v>Bubble sort</v>
+            <v>Bubble Sort</v>
           </cell>
           <cell r="C1" t="str">
-            <v>Insertion sort</v>
+            <v>Insertion Sort</v>
           </cell>
           <cell r="D1" t="str">
-            <v>Merge sort</v>
+            <v>Merge Sort</v>
           </cell>
           <cell r="E1" t="str">
-            <v>Quick sort</v>
+            <v>Quick Sort</v>
           </cell>
           <cell r="F1" t="str">
-            <v>Counting sort</v>
+            <v>Counting Sort</v>
           </cell>
         </row>
         <row r="2">
@@ -4545,19 +5981,19 @@
             <v>1000</v>
           </cell>
           <cell r="B2">
-            <v>720.05</v>
+            <v>265.61399999999998</v>
           </cell>
           <cell r="C2">
-            <v>78.122299999999996</v>
+            <v>437.483</v>
           </cell>
           <cell r="D2">
-            <v>15.6244</v>
+            <v>328.11700000000002</v>
           </cell>
           <cell r="E2">
-            <v>328.113</v>
+            <v>312.49299999999999</v>
           </cell>
           <cell r="F2">
-            <v>156.245</v>
+            <v>140.62</v>
           </cell>
         </row>
         <row r="3">
@@ -4565,19 +6001,19 @@
             <v>1500</v>
           </cell>
           <cell r="B3">
-            <v>890.596</v>
+            <v>562.48400000000004</v>
           </cell>
           <cell r="C3">
-            <v>203.11799999999999</v>
+            <v>156.24100000000001</v>
           </cell>
           <cell r="D3">
-            <v>15.624000000000001</v>
+            <v>265.62200000000001</v>
           </cell>
           <cell r="E3">
-            <v>765.6</v>
+            <v>624.97400000000005</v>
           </cell>
           <cell r="F3">
-            <v>249.99199999999999</v>
+            <v>171.86699999999999</v>
           </cell>
         </row>
         <row r="4">
@@ -4585,19 +6021,19 @@
             <v>2000</v>
           </cell>
           <cell r="B4">
-            <v>1600.71</v>
+            <v>906.22</v>
           </cell>
           <cell r="C4">
-            <v>275.04399999999998</v>
+            <v>281.24299999999999</v>
           </cell>
           <cell r="D4">
-            <v>31.2502</v>
+            <v>15.6256</v>
           </cell>
           <cell r="E4">
-            <v>1203.08</v>
+            <v>1140.5899999999999</v>
           </cell>
           <cell r="F4">
-            <v>326.14100000000002</v>
+            <v>296.86799999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -4605,19 +6041,19 @@
             <v>2500</v>
           </cell>
           <cell r="B5">
-            <v>2359.3000000000002</v>
+            <v>1421.82</v>
           </cell>
           <cell r="C5">
-            <v>438.39</v>
+            <v>437.48899999999998</v>
           </cell>
           <cell r="D5">
-            <v>15.6248</v>
+            <v>31.249600000000001</v>
           </cell>
           <cell r="E5">
-            <v>2093.6799999999998</v>
+            <v>1781.19</v>
           </cell>
           <cell r="F5">
-            <v>593.73099999999999</v>
+            <v>468.73500000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -4625,19 +6061,19 @@
             <v>3000</v>
           </cell>
           <cell r="B6">
-            <v>3250.84</v>
+            <v>2031.18</v>
           </cell>
           <cell r="C6">
-            <v>640.60400000000004</v>
+            <v>624.98099999999999</v>
           </cell>
           <cell r="D6">
-            <v>31.248200000000001</v>
+            <v>31.252500000000001</v>
           </cell>
           <cell r="E6">
-            <v>2803.76</v>
+            <v>2531.17</v>
           </cell>
           <cell r="F6">
-            <v>743.7</v>
+            <v>671.84799999999996</v>
           </cell>
         </row>
         <row r="7">
@@ -4645,19 +6081,19 @@
             <v>3500</v>
           </cell>
           <cell r="B7">
-            <v>4440.8900000000003</v>
+            <v>2765.54</v>
           </cell>
           <cell r="C7">
-            <v>902.30100000000004</v>
+            <v>843.72400000000005</v>
           </cell>
           <cell r="D7">
-            <v>46.875799999999998</v>
+            <v>93.751900000000006</v>
           </cell>
           <cell r="E7">
-            <v>3624.8</v>
+            <v>3453.01</v>
           </cell>
           <cell r="F7">
-            <v>944.21900000000005</v>
+            <v>921.84500000000003</v>
           </cell>
         </row>
         <row r="8">
@@ -4665,19 +6101,19 @@
             <v>4000</v>
           </cell>
           <cell r="B8">
-            <v>5725.67</v>
+            <v>3609.26</v>
           </cell>
           <cell r="C8">
-            <v>1176.69</v>
+            <v>1109.3399999999999</v>
           </cell>
           <cell r="D8">
-            <v>46.877099999999999</v>
+            <v>46.879300000000001</v>
           </cell>
           <cell r="E8">
-            <v>5055.67</v>
+            <v>4546.7299999999996</v>
           </cell>
           <cell r="F8">
-            <v>1235.6199999999999</v>
+            <v>1203.08</v>
           </cell>
         </row>
         <row r="9">
@@ -4685,19 +6121,19 @@
             <v>4500</v>
           </cell>
           <cell r="B9">
-            <v>7474.63</v>
+            <v>4562.3500000000004</v>
           </cell>
           <cell r="C9">
-            <v>1640.57</v>
+            <v>1406.21</v>
           </cell>
           <cell r="D9">
-            <v>46.872999999999998</v>
+            <v>46.872199999999999</v>
           </cell>
           <cell r="E9">
-            <v>6095.77</v>
+            <v>5749.81</v>
           </cell>
           <cell r="F9">
-            <v>1566.99</v>
+            <v>1499.95</v>
           </cell>
         </row>
         <row r="10">
@@ -4705,19 +6141,19 @@
             <v>5000</v>
           </cell>
           <cell r="B10">
-            <v>9758.85</v>
+            <v>5640.44</v>
           </cell>
           <cell r="C10">
-            <v>1852.23</v>
+            <v>1734.32</v>
           </cell>
           <cell r="D10">
-            <v>62.498100000000001</v>
+            <v>62.502299999999998</v>
           </cell>
           <cell r="E10">
-            <v>7920.62</v>
+            <v>7062.27</v>
           </cell>
           <cell r="F10">
-            <v>2283.7600000000002</v>
+            <v>1874.95</v>
           </cell>
         </row>
       </sheetData>
@@ -4730,6 +6166,217 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="timeReverse"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Bubble sort</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Insertion sort</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Merge sort</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Quick sort</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Counting sort</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1000</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>312.479</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>140.619</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>15.6281</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>156.241</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>78.1251</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1500</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>671.85</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>343.739</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>31.2511</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>374.984</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>187.497</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2000</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>1124.96</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>546.856</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>31.2525</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>624.977</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>296.865</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2500</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>1781.2</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>921.842</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>31.2536</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>1015.59</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>468.737</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>3000</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>2468.67</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>1249.96</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>31.249</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>1421.83</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>671.852</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>3500</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>3343.64</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>1687.45</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>46.878</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>1937.43</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>906.225</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>4000</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>4374.86</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>2218.68</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>46.8799</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>2546.79</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>1187.46</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4500</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>5531.07</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>2796.79</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>46.877</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>3218.65</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>1499.95</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>5000</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>6843.53</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>3453.01</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>46.8759</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>3984.24</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>1859.32</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Reverse"/>
       <sheetName val="timeReverse"/>
     </sheetNames>
@@ -4930,6 +6577,218 @@
           </cell>
           <cell r="F10">
             <v>1982.33</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sorted"/>
+      <sheetName val="timeSorted"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Bubble sort</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Insertion sort</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Merge sort</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Quick sort</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Counting sort</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1000</v>
+          </cell>
+          <cell r="B2">
+            <v>720.05</v>
+          </cell>
+          <cell r="C2">
+            <v>78.122299999999996</v>
+          </cell>
+          <cell r="D2">
+            <v>15.6244</v>
+          </cell>
+          <cell r="E2">
+            <v>328.113</v>
+          </cell>
+          <cell r="F2">
+            <v>156.245</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1500</v>
+          </cell>
+          <cell r="B3">
+            <v>890.596</v>
+          </cell>
+          <cell r="C3">
+            <v>203.11799999999999</v>
+          </cell>
+          <cell r="D3">
+            <v>15.624000000000001</v>
+          </cell>
+          <cell r="E3">
+            <v>765.6</v>
+          </cell>
+          <cell r="F3">
+            <v>249.99199999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2000</v>
+          </cell>
+          <cell r="B4">
+            <v>1600.71</v>
+          </cell>
+          <cell r="C4">
+            <v>275.04399999999998</v>
+          </cell>
+          <cell r="D4">
+            <v>31.2502</v>
+          </cell>
+          <cell r="E4">
+            <v>1203.08</v>
+          </cell>
+          <cell r="F4">
+            <v>326.14100000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2500</v>
+          </cell>
+          <cell r="B5">
+            <v>2359.3000000000002</v>
+          </cell>
+          <cell r="C5">
+            <v>438.39</v>
+          </cell>
+          <cell r="D5">
+            <v>31.6248</v>
+          </cell>
+          <cell r="E5">
+            <v>2093.6799999999998</v>
+          </cell>
+          <cell r="F5">
+            <v>593.73099999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>3000</v>
+          </cell>
+          <cell r="B6">
+            <v>3250.84</v>
+          </cell>
+          <cell r="C6">
+            <v>640.60400000000004</v>
+          </cell>
+          <cell r="D6">
+            <v>31.9482</v>
+          </cell>
+          <cell r="E6">
+            <v>2803.76</v>
+          </cell>
+          <cell r="F6">
+            <v>743.7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>3500</v>
+          </cell>
+          <cell r="B7">
+            <v>4440.8900000000003</v>
+          </cell>
+          <cell r="C7">
+            <v>902.30100000000004</v>
+          </cell>
+          <cell r="D7">
+            <v>46.875799999999998</v>
+          </cell>
+          <cell r="E7">
+            <v>3624.8</v>
+          </cell>
+          <cell r="F7">
+            <v>944.21900000000005</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>4000</v>
+          </cell>
+          <cell r="B8">
+            <v>5725.67</v>
+          </cell>
+          <cell r="C8">
+            <v>1176.69</v>
+          </cell>
+          <cell r="D8">
+            <v>46.877099999999999</v>
+          </cell>
+          <cell r="E8">
+            <v>5055.67</v>
+          </cell>
+          <cell r="F8">
+            <v>1235.6199999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4500</v>
+          </cell>
+          <cell r="B9">
+            <v>7474.63</v>
+          </cell>
+          <cell r="C9">
+            <v>1640.57</v>
+          </cell>
+          <cell r="D9">
+            <v>46.893000000000001</v>
+          </cell>
+          <cell r="E9">
+            <v>6095.77</v>
+          </cell>
+          <cell r="F9">
+            <v>1566.99</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>5000</v>
+          </cell>
+          <cell r="B10">
+            <v>9758.85</v>
+          </cell>
+          <cell r="C10">
+            <v>1852.23</v>
+          </cell>
+          <cell r="D10">
+            <v>62.498100000000001</v>
+          </cell>
+          <cell r="E10">
+            <v>7920.62</v>
+          </cell>
+          <cell r="F10">
+            <v>2283.7600000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -5231,4 +7090,34 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290F403E-1047-4473-87D4-69D1DAA544CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97076C98-C101-42BE-9DA9-5CD256334B55}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>